--- a/GMAT/CubeSat.xlsx
+++ b/GMAT/CubeSat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oussa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2A779-CAA2-4D52-81BC-D263D01DBA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7095EAAF-BDB6-4E9D-BCDC-65DB44390CAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="-75" windowWidth="18000" windowHeight="9360" tabRatio="681" firstSheet="8" activeTab="12" xr2:uid="{176624D1-7919-4212-8982-FEC2C8C25FE8}"/>
+    <workbookView xWindow="14955" yWindow="3510" windowWidth="18000" windowHeight="9360" tabRatio="681" firstSheet="1" activeTab="6" xr2:uid="{176624D1-7919-4212-8982-FEC2C8C25FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="400km" sheetId="21" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="662">
   <si>
     <t xml:space="preserve">CubeSats </t>
   </si>
@@ -1350,6 +1350,693 @@
   </si>
   <si>
     <t>7340,37km</t>
+  </si>
+  <si>
+    <t>7358,33km</t>
+  </si>
+  <si>
+    <t>7291,06km</t>
+  </si>
+  <si>
+    <t>6550,90km</t>
+  </si>
+  <si>
+    <t>1,25kg</t>
+  </si>
+  <si>
+    <t>6732,20km</t>
+  </si>
+  <si>
+    <t>6550,38km</t>
+  </si>
+  <si>
+    <t>6820,28km</t>
+  </si>
+  <si>
+    <t>1,95kg</t>
+  </si>
+  <si>
+    <t>7291,05km</t>
+  </si>
+  <si>
+    <t>6811,86km</t>
+  </si>
+  <si>
+    <t>6550,61km</t>
+  </si>
+  <si>
+    <t>2,7kg</t>
+  </si>
+  <si>
+    <t>7358,83km</t>
+  </si>
+  <si>
+    <t>7291,04km</t>
+  </si>
+  <si>
+    <t>6754,50km</t>
+  </si>
+  <si>
+    <t>3,38kg</t>
+  </si>
+  <si>
+    <t>7291,03km</t>
+  </si>
+  <si>
+    <t>6780,58km</t>
+  </si>
+  <si>
+    <t>6550,44km</t>
+  </si>
+  <si>
+    <t>4,16kg</t>
+  </si>
+  <si>
+    <t>7291,01km</t>
+  </si>
+  <si>
+    <t>6725,99km</t>
+  </si>
+  <si>
+    <t>6550,19km</t>
+  </si>
+  <si>
+    <t>4,85kg</t>
+  </si>
+  <si>
+    <t>7290,99km</t>
+  </si>
+  <si>
+    <t>6610,39km</t>
+  </si>
+  <si>
+    <t>6545,85km</t>
+  </si>
+  <si>
+    <t>7290,96km</t>
+  </si>
+  <si>
+    <t>6850,62km</t>
+  </si>
+  <si>
+    <t>6550,70km</t>
+  </si>
+  <si>
+    <t>7358,82km</t>
+  </si>
+  <si>
+    <t>7290,92km</t>
+  </si>
+  <si>
+    <t>6545,83km</t>
+  </si>
+  <si>
+    <t>6532,67km</t>
+  </si>
+  <si>
+    <t>7,33kg</t>
+  </si>
+  <si>
+    <t>7358,32km</t>
+  </si>
+  <si>
+    <t>7290,85km</t>
+  </si>
+  <si>
+    <t>6662,60km</t>
+  </si>
+  <si>
+    <t>6546,90km</t>
+  </si>
+  <si>
+    <t>7,78kg</t>
+  </si>
+  <si>
+    <t>6,24kg</t>
+  </si>
+  <si>
+    <t>8,65kg</t>
+  </si>
+  <si>
+    <t>6591,11km</t>
+  </si>
+  <si>
+    <t>6544,56km</t>
+  </si>
+  <si>
+    <t>7290,71km</t>
+  </si>
+  <si>
+    <t>7308,08km</t>
+  </si>
+  <si>
+    <t>7241,39km</t>
+  </si>
+  <si>
+    <t>6760,10km</t>
+  </si>
+  <si>
+    <t>1,82kg</t>
+  </si>
+  <si>
+    <t>6611,08km</t>
+  </si>
+  <si>
+    <t>6548,90km</t>
+  </si>
+  <si>
+    <t>2,69kg</t>
+  </si>
+  <si>
+    <t>7241,38km</t>
+  </si>
+  <si>
+    <t>6750,51km</t>
+  </si>
+  <si>
+    <t>6550,45km</t>
+  </si>
+  <si>
+    <t>3,18kg</t>
+  </si>
+  <si>
+    <t>7308,03km</t>
+  </si>
+  <si>
+    <t>7241,37km</t>
+  </si>
+  <si>
+    <t>6627,36km</t>
+  </si>
+  <si>
+    <t>6549,35km</t>
+  </si>
+  <si>
+    <t>4,02kg</t>
+  </si>
+  <si>
+    <t>7241,36km</t>
+  </si>
+  <si>
+    <t>6741,84km</t>
+  </si>
+  <si>
+    <t>4,57kg</t>
+  </si>
+  <si>
+    <t>7241,34km</t>
+  </si>
+  <si>
+    <t>6663,38km</t>
+  </si>
+  <si>
+    <t>6548,76km</t>
+  </si>
+  <si>
+    <t>5,27kg</t>
+  </si>
+  <si>
+    <t>7241,32km</t>
+  </si>
+  <si>
+    <t>6638,03km</t>
+  </si>
+  <si>
+    <t>5,97kg</t>
+  </si>
+  <si>
+    <t>7241,29km</t>
+  </si>
+  <si>
+    <t>6707,71km</t>
+  </si>
+  <si>
+    <t>6550,00km</t>
+  </si>
+  <si>
+    <t>6,56kg</t>
+  </si>
+  <si>
+    <t>7241,25km</t>
+  </si>
+  <si>
+    <t>6569,06km</t>
+  </si>
+  <si>
+    <t>6534,47km</t>
+  </si>
+  <si>
+    <t>7,39kg</t>
+  </si>
+  <si>
+    <t>7241,18km</t>
+  </si>
+  <si>
+    <t>6634,37km</t>
+  </si>
+  <si>
+    <t>6542,01km</t>
+  </si>
+  <si>
+    <t>7,95kg</t>
+  </si>
+  <si>
+    <t>7257,84km</t>
+  </si>
+  <si>
+    <t>7191,72km</t>
+  </si>
+  <si>
+    <t>6649,70km</t>
+  </si>
+  <si>
+    <t>6735,74km</t>
+  </si>
+  <si>
+    <t>6550,48km</t>
+  </si>
+  <si>
+    <t>3,11kg</t>
+  </si>
+  <si>
+    <t>7257,34km</t>
+  </si>
+  <si>
+    <t>7191,71km</t>
+  </si>
+  <si>
+    <t>6682,59km</t>
+  </si>
+  <si>
+    <t>6550,05km</t>
+  </si>
+  <si>
+    <t>3,72kg</t>
+  </si>
+  <si>
+    <t>7191,70km</t>
+  </si>
+  <si>
+    <t>6675,28km</t>
+  </si>
+  <si>
+    <t>4,39kg</t>
+  </si>
+  <si>
+    <t>7257,94km</t>
+  </si>
+  <si>
+    <t>7191,69km</t>
+  </si>
+  <si>
+    <t>6673,24km</t>
+  </si>
+  <si>
+    <t>6594,40km</t>
+  </si>
+  <si>
+    <t>4,99kg</t>
+  </si>
+  <si>
+    <t>7191,67km</t>
+  </si>
+  <si>
+    <t>6594,60km</t>
+  </si>
+  <si>
+    <t>6545,42km</t>
+  </si>
+  <si>
+    <t>7191,65km</t>
+  </si>
+  <si>
+    <t>6731,92km</t>
+  </si>
+  <si>
+    <t>6550,34km</t>
+  </si>
+  <si>
+    <t>6,15kg</t>
+  </si>
+  <si>
+    <t>7191,62km</t>
+  </si>
+  <si>
+    <t>6609,70km</t>
+  </si>
+  <si>
+    <t>6543,30km</t>
+  </si>
+  <si>
+    <t>7191,58km</t>
+  </si>
+  <si>
+    <t>6624,83km</t>
+  </si>
+  <si>
+    <t>6544,59km</t>
+  </si>
+  <si>
+    <t>7,52kg</t>
+  </si>
+  <si>
+    <t>7257,83km</t>
+  </si>
+  <si>
+    <t>7191,51km</t>
+  </si>
+  <si>
+    <t>6649,03km</t>
+  </si>
+  <si>
+    <t>6543,39km</t>
+  </si>
+  <si>
+    <t>8,13kg</t>
+  </si>
+  <si>
+    <t>7207,60km</t>
+  </si>
+  <si>
+    <t>7142,05km</t>
+  </si>
+  <si>
+    <t>6663,04km</t>
+  </si>
+  <si>
+    <t>6550,20km</t>
+  </si>
+  <si>
+    <t>3,15kg</t>
+  </si>
+  <si>
+    <t>6672,14km</t>
+  </si>
+  <si>
+    <t>6549,87km</t>
+  </si>
+  <si>
+    <t>3,70kg</t>
+  </si>
+  <si>
+    <t>7142,04km</t>
+  </si>
+  <si>
+    <t>6585,50km</t>
+  </si>
+  <si>
+    <t>6548,09km</t>
+  </si>
+  <si>
+    <t>4,48kg</t>
+  </si>
+  <si>
+    <t>7142,03km</t>
+  </si>
+  <si>
+    <t>6689,96km</t>
+  </si>
+  <si>
+    <t>6550,36km</t>
+  </si>
+  <si>
+    <t>4,87kg</t>
+  </si>
+  <si>
+    <t>7142,02km</t>
+  </si>
+  <si>
+    <t>6636,91km</t>
+  </si>
+  <si>
+    <t>5,48kg</t>
+  </si>
+  <si>
+    <t>7207,59km</t>
+  </si>
+  <si>
+    <t>7142,00km</t>
+  </si>
+  <si>
+    <t>6597,01km</t>
+  </si>
+  <si>
+    <t>6547,02km</t>
+  </si>
+  <si>
+    <t>6,14kg</t>
+  </si>
+  <si>
+    <t>7141,98km</t>
+  </si>
+  <si>
+    <t>6689,35km</t>
+  </si>
+  <si>
+    <t>6550,22km</t>
+  </si>
+  <si>
+    <t>6,51kg</t>
+  </si>
+  <si>
+    <t>7141,96km</t>
+  </si>
+  <si>
+    <t>6569,77km</t>
+  </si>
+  <si>
+    <t>6543,07km</t>
+  </si>
+  <si>
+    <t>7,45kg</t>
+  </si>
+  <si>
+    <t>7141,92km</t>
+  </si>
+  <si>
+    <t>6624,84km</t>
+  </si>
+  <si>
+    <t>6547,72km</t>
+  </si>
+  <si>
+    <t>7,71kg</t>
+  </si>
+  <si>
+    <t>7141,85km</t>
+  </si>
+  <si>
+    <t>6630,67km</t>
+  </si>
+  <si>
+    <t>6541,71km</t>
+  </si>
+  <si>
+    <t>7157,35km</t>
+  </si>
+  <si>
+    <t>7092,39km</t>
+  </si>
+  <si>
+    <t>6656,79km</t>
+  </si>
+  <si>
+    <t>6549,68km</t>
+  </si>
+  <si>
+    <t>3,82kg</t>
+  </si>
+  <si>
+    <t>7092,38km</t>
+  </si>
+  <si>
+    <t>6579,72km</t>
+  </si>
+  <si>
+    <t>6547,54km</t>
+  </si>
+  <si>
+    <t>4,56kg</t>
+  </si>
+  <si>
+    <t>7092,35km</t>
+  </si>
+  <si>
+    <t>6567,61km</t>
+  </si>
+  <si>
+    <t>6542,09km</t>
+  </si>
+  <si>
+    <t>6,20kg</t>
+  </si>
+  <si>
+    <t>7092,34km</t>
+  </si>
+  <si>
+    <t>6644,96km</t>
+  </si>
+  <si>
+    <t>6548,50km</t>
+  </si>
+  <si>
+    <t>6,32kg</t>
+  </si>
+  <si>
+    <t>7092,36km</t>
+  </si>
+  <si>
+    <t>6626,65km</t>
+  </si>
+  <si>
+    <t>6547,31km</t>
+  </si>
+  <si>
+    <t>5,41kg</t>
+  </si>
+  <si>
+    <t>7092,37km</t>
+  </si>
+  <si>
+    <t>6661,13km</t>
+  </si>
+  <si>
+    <t>6550,09km</t>
+  </si>
+  <si>
+    <t>4,96kg</t>
+  </si>
+  <si>
+    <t>7092,32km</t>
+  </si>
+  <si>
+    <t>6599,03km</t>
+  </si>
+  <si>
+    <t>7,08kg</t>
+  </si>
+  <si>
+    <t>7092,25km</t>
+  </si>
+  <si>
+    <t>6591,88km</t>
+  </si>
+  <si>
+    <t>6542,45km</t>
+  </si>
+  <si>
+    <t>7,96kg</t>
+  </si>
+  <si>
+    <t>7092,19km</t>
+  </si>
+  <si>
+    <t>6603,39km</t>
+  </si>
+  <si>
+    <t>6543,69km</t>
+  </si>
+  <si>
+    <t>8,58kg</t>
+  </si>
+  <si>
+    <t>7157,34km</t>
+  </si>
+  <si>
+    <t>7092,06km</t>
+  </si>
+  <si>
+    <t>6529,39km</t>
+  </si>
+  <si>
+    <t>6526,39km</t>
+  </si>
+  <si>
+    <t>8,98kg</t>
+  </si>
+  <si>
+    <t>7107,11km</t>
+  </si>
+  <si>
+    <t>7042,72km</t>
+  </si>
+  <si>
+    <t>6562,37km</t>
+  </si>
+  <si>
+    <t>6546,59km</t>
+  </si>
+  <si>
+    <t>4,77kg</t>
+  </si>
+  <si>
+    <t>7170,11km</t>
+  </si>
+  <si>
+    <t>6635,75km</t>
+  </si>
+  <si>
+    <t>6549,02km</t>
+  </si>
+  <si>
+    <t>5,00kg</t>
+  </si>
+  <si>
+    <t>7042,71km</t>
+  </si>
+  <si>
+    <t>6617,97km</t>
+  </si>
+  <si>
+    <t>6547,92km</t>
+  </si>
+  <si>
+    <t>5,50kg</t>
+  </si>
+  <si>
+    <t>7042,70km</t>
+  </si>
+  <si>
+    <t>6569,65km</t>
+  </si>
+  <si>
+    <t>6543,40km</t>
+  </si>
+  <si>
+    <t>7042,69km</t>
+  </si>
+  <si>
+    <t>6596,65km</t>
+  </si>
+  <si>
+    <t>6547,32km</t>
+  </si>
+  <si>
+    <t>6,34kg</t>
+  </si>
+  <si>
+    <t>7042,68km</t>
+  </si>
+  <si>
+    <t>6600,84km</t>
+  </si>
+  <si>
+    <t>6546,33km</t>
+  </si>
+  <si>
+    <t>6,92kg</t>
+  </si>
+  <si>
+    <t>7042,66km</t>
+  </si>
+  <si>
+    <t>6552,95km</t>
+  </si>
+  <si>
+    <t>6541,90km</t>
+  </si>
+  <si>
+    <t>7,58kg</t>
   </si>
 </sst>
 </file>
@@ -2007,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6FFF-C6EA-4339-A45D-B25C4ED0A3BF}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,12 +2796,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J5" s="1">
+        <v>181.45</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2129,12 +2828,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J6" s="1">
+        <v>232.06</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2149,12 +2860,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J7" s="1">
+        <v>317.77</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2169,12 +2892,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J8" s="1">
+        <v>378</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2189,12 +2924,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="1">
+        <v>451.2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2209,12 +2956,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J10" s="1">
+        <v>512.53</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2229,12 +2988,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J11" s="1">
+        <v>559.39</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2249,12 +3020,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J12" s="1">
+        <v>630.39</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2269,12 +3052,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J13" s="1">
+        <v>672.67</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2289,12 +3084,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="1">
+        <v>741.55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2305,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6FE69-048D-4F4F-AAAA-DAD9A47C6D93}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,12 +3214,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J5" s="1">
+        <v>194.67</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2427,12 +3246,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J6" s="1">
+        <v>252.38</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2447,12 +3278,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J7" s="1">
+        <v>347.51</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2467,12 +3310,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J8" s="1">
+        <v>400.88</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2487,12 +3342,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J9" s="1">
+        <v>489.16</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2507,12 +3374,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J10" s="1">
+        <v>540.34</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2527,12 +3406,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J11" s="1">
+        <v>604.94000000000005</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2547,12 +3438,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J12" s="1">
+        <v>662.19</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2567,12 +3470,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J13" s="1">
+        <v>718.37</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2587,12 +3502,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J14" s="1">
+        <v>792.78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2604,7 +3531,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,12 +3612,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J4" s="1">
+        <v>143.36000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2705,12 +3644,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J5" s="1">
+        <v>206.69</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2725,12 +3676,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J6" s="1">
+        <v>280.74</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2745,12 +3708,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J7" s="1">
+        <v>369.33</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2765,12 +3740,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="1">
+        <v>433.69</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2785,12 +3772,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J9" s="1">
+        <v>515.79</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2805,12 +3804,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J10" s="1">
+        <v>568.63</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2825,12 +3836,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J11" s="1">
+        <v>643.41999999999996</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2845,12 +3868,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J12" s="1">
+        <v>693.72</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2865,12 +3900,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J13" s="1">
+        <v>783.27</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2885,12 +3932,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J14" s="1">
+        <v>833.55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2901,7 +3960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F059DAD-DF27-4806-88AD-E0B3DA48FFB7}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -8253,8 +9312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4DFF7A-247D-4B28-8A42-BAE7DB13E7B9}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8415,12 +9474,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="J8" s="1">
+        <v>258.08999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -8435,12 +9506,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J9" s="1">
+        <v>325.02999999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -8455,12 +9538,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J10" s="1">
+        <v>371.6</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -8475,12 +9570,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="1">
+        <v>429.03</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -8495,12 +9602,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J12" s="1">
+        <v>482.05</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -8515,12 +9634,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="J13" s="1">
+        <v>518.24</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -8535,12 +9666,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="J14" s="1">
+        <v>561.98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8551,8 +9694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B18802-76A7-4298-992F-4D473538BE18}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8633,12 +9776,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J4" s="1">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -8653,12 +9808,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J5" s="1">
+        <v>149.22</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -8673,12 +9840,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J6" s="1">
+        <v>195.17</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -8713,12 +9892,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J8" s="1">
+        <v>312.77999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -8733,12 +9924,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="J9" s="1">
+        <v>368.09</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -8753,12 +9956,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J10" s="1">
+        <v>423.79</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -8773,12 +9988,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="J11" s="1">
+        <v>486.94</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -8793,12 +10020,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="J12" s="1">
+        <v>526.99</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -8813,12 +10052,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J13" s="1">
+        <v>578.57000000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -8833,12 +10084,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J14" s="1">
+        <v>635.32000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8849,8 +10112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E93B5F-2229-40D0-8441-2F4E0BF9F920}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8951,12 +10214,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J5" s="1">
+        <v>167.28</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -8971,12 +10246,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J6" s="1">
+        <v>213.74</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -8991,12 +10278,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J7" s="1">
+        <v>275.68</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -9011,12 +10310,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J8" s="1">
+        <v>352.78</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -9031,12 +10342,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J9" s="1">
+        <v>400.39</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -9051,12 +10374,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J10" s="1">
+        <v>479.66</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -9071,12 +10406,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J11" s="1">
+        <v>524</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -9091,12 +10438,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J12" s="1">
+        <v>574.75</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -9111,12 +10470,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J13" s="1">
+        <v>637.19000000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -9131,12 +10502,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J14" s="1">
+        <v>678.02</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/GMAT/CubeSat.xlsx
+++ b/GMAT/CubeSat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oussa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7095EAAF-BDB6-4E9D-BCDC-65DB44390CAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAD9BA0-2A6E-4F6F-A968-F687A70D780B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="3510" windowWidth="18000" windowHeight="9360" tabRatio="681" firstSheet="1" activeTab="6" xr2:uid="{176624D1-7919-4212-8982-FEC2C8C25FE8}"/>
+    <workbookView xWindow="16440" yWindow="1500" windowWidth="18000" windowHeight="9360" tabRatio="681" firstSheet="10" activeTab="14" xr2:uid="{176624D1-7919-4212-8982-FEC2C8C25FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="400km" sheetId="21" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="938">
   <si>
     <t xml:space="preserve">CubeSats </t>
   </si>
@@ -854,9 +854,6 @@
     <t>0,94kg</t>
   </si>
   <si>
-    <t>7810,53kg</t>
-  </si>
-  <si>
     <t>7738,12km</t>
   </si>
   <si>
@@ -2037,6 +2034,837 @@
   </si>
   <si>
     <t>7,58kg</t>
+  </si>
+  <si>
+    <t>7042,63km</t>
+  </si>
+  <si>
+    <t>6587,32km</t>
+  </si>
+  <si>
+    <t>6543,87km</t>
+  </si>
+  <si>
+    <t>7,76kg</t>
+  </si>
+  <si>
+    <t>7107,10km</t>
+  </si>
+  <si>
+    <t>7042,59km</t>
+  </si>
+  <si>
+    <t>6605,80km</t>
+  </si>
+  <si>
+    <t>6541,60km</t>
+  </si>
+  <si>
+    <t>8,25kg</t>
+  </si>
+  <si>
+    <t>7056,86km</t>
+  </si>
+  <si>
+    <t>6993,06km</t>
+  </si>
+  <si>
+    <t>6618,80km</t>
+  </si>
+  <si>
+    <t>6993,05km</t>
+  </si>
+  <si>
+    <t>6601,84km</t>
+  </si>
+  <si>
+    <t>6545,96km</t>
+  </si>
+  <si>
+    <t>5,77kg</t>
+  </si>
+  <si>
+    <t>6993,04km</t>
+  </si>
+  <si>
+    <t>6595,34km</t>
+  </si>
+  <si>
+    <t>6548,38km</t>
+  </si>
+  <si>
+    <t>6,44km</t>
+  </si>
+  <si>
+    <t>7059,86km</t>
+  </si>
+  <si>
+    <t>6993,03km</t>
+  </si>
+  <si>
+    <t>6548,99km</t>
+  </si>
+  <si>
+    <t>6545,25km</t>
+  </si>
+  <si>
+    <t>7,01kg</t>
+  </si>
+  <si>
+    <t>6993,01km</t>
+  </si>
+  <si>
+    <t>6538,57km</t>
+  </si>
+  <si>
+    <t>6992,99km</t>
+  </si>
+  <si>
+    <t>6576,92km</t>
+  </si>
+  <si>
+    <t>6540,20km</t>
+  </si>
+  <si>
+    <t>6992,97km</t>
+  </si>
+  <si>
+    <t>6561,05km</t>
+  </si>
+  <si>
+    <t>6536,48km</t>
+  </si>
+  <si>
+    <t>8,11kg</t>
+  </si>
+  <si>
+    <t>6992,93km</t>
+  </si>
+  <si>
+    <t>6581,89km</t>
+  </si>
+  <si>
+    <t>6541,06km</t>
+  </si>
+  <si>
+    <t>8,61kg</t>
+  </si>
+  <si>
+    <t>7006,62km</t>
+  </si>
+  <si>
+    <t>6943,40km</t>
+  </si>
+  <si>
+    <t>6565,15km</t>
+  </si>
+  <si>
+    <t>6545,32km</t>
+  </si>
+  <si>
+    <t>6,43kg</t>
+  </si>
+  <si>
+    <t>6943,39km</t>
+  </si>
+  <si>
+    <t>6566,39km</t>
+  </si>
+  <si>
+    <t>6,48kg</t>
+  </si>
+  <si>
+    <t>6943,38km</t>
+  </si>
+  <si>
+    <t>6600,51km</t>
+  </si>
+  <si>
+    <t>6548,03km</t>
+  </si>
+  <si>
+    <t>6,82kg</t>
+  </si>
+  <si>
+    <t>6572,43km</t>
+  </si>
+  <si>
+    <t>6543,43km</t>
+  </si>
+  <si>
+    <t>7,41kg</t>
+  </si>
+  <si>
+    <t>6943,37km</t>
+  </si>
+  <si>
+    <t>6537,21km</t>
+  </si>
+  <si>
+    <t>6535,77km</t>
+  </si>
+  <si>
+    <t>7,68kg</t>
+  </si>
+  <si>
+    <t>6943,35km</t>
+  </si>
+  <si>
+    <t>6577,96km</t>
+  </si>
+  <si>
+    <t>6545,67km</t>
+  </si>
+  <si>
+    <t>7,79kg</t>
+  </si>
+  <si>
+    <t>6943,33km</t>
+  </si>
+  <si>
+    <t>6526,76km</t>
+  </si>
+  <si>
+    <t>6526,01km</t>
+  </si>
+  <si>
+    <t>8,15kg</t>
+  </si>
+  <si>
+    <t>6943,31km</t>
+  </si>
+  <si>
+    <t>6567,80km</t>
+  </si>
+  <si>
+    <t>6536,25km</t>
+  </si>
+  <si>
+    <t>8,55kg</t>
+  </si>
+  <si>
+    <t>6943,21km</t>
+  </si>
+  <si>
+    <t>6539,12km</t>
+  </si>
+  <si>
+    <t>6531,67km</t>
+  </si>
+  <si>
+    <t>9,03kg</t>
+  </si>
+  <si>
+    <t>6956,38km</t>
+  </si>
+  <si>
+    <t>6568,30km</t>
+  </si>
+  <si>
+    <t>6546,58km</t>
+  </si>
+  <si>
+    <t>6893,73km</t>
+  </si>
+  <si>
+    <t>6893,74km</t>
+  </si>
+  <si>
+    <t>6565,96km</t>
+  </si>
+  <si>
+    <t>7,60kg</t>
+  </si>
+  <si>
+    <t>6539,72km</t>
+  </si>
+  <si>
+    <t>6538,30km</t>
+  </si>
+  <si>
+    <t>7,73kg</t>
+  </si>
+  <si>
+    <t>6893,72km</t>
+  </si>
+  <si>
+    <t>6570,77km</t>
+  </si>
+  <si>
+    <t>7,80kg</t>
+  </si>
+  <si>
+    <t>6893,71km</t>
+  </si>
+  <si>
+    <t>6558,09km</t>
+  </si>
+  <si>
+    <t>6544,41km</t>
+  </si>
+  <si>
+    <t>6547,27km</t>
+  </si>
+  <si>
+    <t>8,01kg</t>
+  </si>
+  <si>
+    <t>6893,69km</t>
+  </si>
+  <si>
+    <t>6582,88km</t>
+  </si>
+  <si>
+    <t>6542,51km</t>
+  </si>
+  <si>
+    <t>8,38kg</t>
+  </si>
+  <si>
+    <t>6956,37km</t>
+  </si>
+  <si>
+    <t>6893,68km</t>
+  </si>
+  <si>
+    <t>6532,29km</t>
+  </si>
+  <si>
+    <t>8,74kg</t>
+  </si>
+  <si>
+    <t>6844,08km</t>
+  </si>
+  <si>
+    <t>6906,13km</t>
+  </si>
+  <si>
+    <t>6562,09km</t>
+  </si>
+  <si>
+    <t>6542,89km</t>
+  </si>
+  <si>
+    <t>7,92kg</t>
+  </si>
+  <si>
+    <t>6844,07km</t>
+  </si>
+  <si>
+    <t>6546,01km</t>
+  </si>
+  <si>
+    <t>6540,50km</t>
+  </si>
+  <si>
+    <t>6574,63km</t>
+  </si>
+  <si>
+    <t>6541,98km</t>
+  </si>
+  <si>
+    <t>8,36kg</t>
+  </si>
+  <si>
+    <t>6844,06km</t>
+  </si>
+  <si>
+    <t>6563,76km</t>
+  </si>
+  <si>
+    <t>6540,92km</t>
+  </si>
+  <si>
+    <t>8,59kg</t>
+  </si>
+  <si>
+    <t>6844,05km</t>
+  </si>
+  <si>
+    <t>6548,24km</t>
+  </si>
+  <si>
+    <t>6537,68km</t>
+  </si>
+  <si>
+    <t>8,85kg</t>
+  </si>
+  <si>
+    <t>6856,89km</t>
+  </si>
+  <si>
+    <t>6538,68km</t>
+  </si>
+  <si>
+    <t>6536,79km</t>
+  </si>
+  <si>
+    <t>8,94kg</t>
+  </si>
+  <si>
+    <t>6795,41km</t>
+  </si>
+  <si>
+    <t>6532,95km</t>
+  </si>
+  <si>
+    <t>6527,47km</t>
+  </si>
+  <si>
+    <t>8,99kg</t>
+  </si>
+  <si>
+    <t>6855,88km</t>
+  </si>
+  <si>
+    <t>6794,40km</t>
+  </si>
+  <si>
+    <t>6534,50km</t>
+  </si>
+  <si>
+    <t>6520,89km</t>
+  </si>
+  <si>
+    <t>6855,89km</t>
+  </si>
+  <si>
+    <t>6794,39km</t>
+  </si>
+  <si>
+    <t>6545,03km</t>
+  </si>
+  <si>
+    <t>6536,82km</t>
+  </si>
+  <si>
+    <t>9,02kg</t>
+  </si>
+  <si>
+    <t>6794,38km</t>
+  </si>
+  <si>
+    <t>6539,58km</t>
+  </si>
+  <si>
+    <t>9,09kg</t>
+  </si>
+  <si>
+    <t>6794,36km</t>
+  </si>
+  <si>
+    <t>6522,36km</t>
+  </si>
+  <si>
+    <t>6516,29km</t>
+  </si>
+  <si>
+    <t>9,19kg</t>
+  </si>
+  <si>
+    <t>6550,17km</t>
+  </si>
+  <si>
+    <t>6535,48km</t>
+  </si>
+  <si>
+    <t>9,30kg</t>
+  </si>
+  <si>
+    <t>6794,30km</t>
+  </si>
+  <si>
+    <t>6574,26km</t>
+  </si>
+  <si>
+    <t>6543,54km</t>
+  </si>
+  <si>
+    <t>9,43kg</t>
+  </si>
+  <si>
+    <t>6794,24km</t>
+  </si>
+  <si>
+    <t>6556,49km</t>
+  </si>
+  <si>
+    <t>6536,06km</t>
+  </si>
+  <si>
+    <t>9,56kg</t>
+  </si>
+  <si>
+    <t>6563,04km</t>
+  </si>
+  <si>
+    <t>6542,68km</t>
+  </si>
+  <si>
+    <t>9,71kg</t>
+  </si>
+  <si>
+    <t>6794,12km</t>
+  </si>
+  <si>
+    <t>6795,40km</t>
+  </si>
+  <si>
+    <t>6805,64km</t>
+  </si>
+  <si>
+    <t>6744,77km</t>
+  </si>
+  <si>
+    <t>6546,36km</t>
+  </si>
+  <si>
+    <t>6544,28km</t>
+  </si>
+  <si>
+    <t>9,12kg</t>
+  </si>
+  <si>
+    <t>6850,64km</t>
+  </si>
+  <si>
+    <t>6744,76km</t>
+  </si>
+  <si>
+    <t>6544,45km</t>
+  </si>
+  <si>
+    <t>9,17kg</t>
+  </si>
+  <si>
+    <t>6744,75km</t>
+  </si>
+  <si>
+    <t>6537,06km</t>
+  </si>
+  <si>
+    <t>6534,86km</t>
+  </si>
+  <si>
+    <t>9,24kg</t>
+  </si>
+  <si>
+    <t>6744,74km</t>
+  </si>
+  <si>
+    <t>6537,66km</t>
+  </si>
+  <si>
+    <t>6744,73km</t>
+  </si>
+  <si>
+    <t>6560,78km</t>
+  </si>
+  <si>
+    <t>6536,59km</t>
+  </si>
+  <si>
+    <t>9,37kg</t>
+  </si>
+  <si>
+    <t>6744,72km</t>
+  </si>
+  <si>
+    <t>6563,52km</t>
+  </si>
+  <si>
+    <t>6541,68km</t>
+  </si>
+  <si>
+    <t>9,44kg</t>
+  </si>
+  <si>
+    <t>6744,70km</t>
+  </si>
+  <si>
+    <t>6557,24km</t>
+  </si>
+  <si>
+    <t>6539,27km</t>
+  </si>
+  <si>
+    <t>9,51kg</t>
+  </si>
+  <si>
+    <t>6744,67km</t>
+  </si>
+  <si>
+    <t>6539,87km</t>
+  </si>
+  <si>
+    <t>6529,71km</t>
+  </si>
+  <si>
+    <t>9,60kg</t>
+  </si>
+  <si>
+    <t>6744,63km</t>
+  </si>
+  <si>
+    <t>6545,22km</t>
+  </si>
+  <si>
+    <t>6534,63km</t>
+  </si>
+  <si>
+    <t>9,68kg</t>
+  </si>
+  <si>
+    <t>6558,45km</t>
+  </si>
+  <si>
+    <t>6544,15km</t>
+  </si>
+  <si>
+    <t>9,78kg</t>
+  </si>
+  <si>
+    <t>6744,57km</t>
+  </si>
+  <si>
+    <t>6552,54km</t>
+  </si>
+  <si>
+    <t>6544,26km</t>
+  </si>
+  <si>
+    <t>9,86kg</t>
+  </si>
+  <si>
+    <t>6805,54km</t>
+  </si>
+  <si>
+    <t>6743,72km</t>
+  </si>
+  <si>
+    <t>6562,48km</t>
+  </si>
+  <si>
+    <t>6550,43km</t>
+  </si>
+  <si>
+    <t>8,97kg</t>
+  </si>
+  <si>
+    <t>6844,04km</t>
+  </si>
+  <si>
+    <t>6556,98km</t>
+  </si>
+  <si>
+    <t>6545,24km</t>
+  </si>
+  <si>
+    <t>8,96kg</t>
+  </si>
+  <si>
+    <t>6844,02km</t>
+  </si>
+  <si>
+    <t>6843,99km</t>
+  </si>
+  <si>
+    <t>6539,81km</t>
+  </si>
+  <si>
+    <t>6532,76km</t>
+  </si>
+  <si>
+    <t>9,04kg</t>
+  </si>
+  <si>
+    <t>6560,48km</t>
+  </si>
+  <si>
+    <t>6843,96km</t>
+  </si>
+  <si>
+    <t>6589,70km</t>
+  </si>
+  <si>
+    <t>6548,27km</t>
+  </si>
+  <si>
+    <t>9,36kg</t>
+  </si>
+  <si>
+    <t>6843,78km</t>
+  </si>
+  <si>
+    <t>6552,64km</t>
+  </si>
+  <si>
+    <t>6530,82km</t>
+  </si>
+  <si>
+    <t>6581,00km</t>
+  </si>
+  <si>
+    <t>6539,28km</t>
+  </si>
+  <si>
+    <t>6893,43km</t>
+  </si>
+  <si>
+    <t>6565,12km</t>
+  </si>
+  <si>
+    <t>6544,50km</t>
+  </si>
+  <si>
+    <t>9,18kg</t>
+  </si>
+  <si>
+    <t>6893,55km</t>
+  </si>
+  <si>
+    <t>6554,11km</t>
+  </si>
+  <si>
+    <t>6541,46km</t>
+  </si>
+  <si>
+    <t>6893,61km</t>
+  </si>
+  <si>
+    <t>6566,36km</t>
+  </si>
+  <si>
+    <t>6893,65km</t>
+  </si>
+  <si>
+    <t>6605,23km</t>
+  </si>
+  <si>
+    <t>6547,57km</t>
+  </si>
+  <si>
+    <t>7006,61km</t>
+  </si>
+  <si>
+    <t>6943,09km</t>
+  </si>
+  <si>
+    <t>6558,51km</t>
+  </si>
+  <si>
+    <t>6549,60km</t>
+  </si>
+  <si>
+    <t>8,92kg</t>
+  </si>
+  <si>
+    <t>7006,52km</t>
+  </si>
+  <si>
+    <t>6943,27km</t>
+  </si>
+  <si>
+    <t>6617,24km</t>
+  </si>
+  <si>
+    <t>6549,80km</t>
+  </si>
+  <si>
+    <t>6992,74km</t>
+  </si>
+  <si>
+    <t>6549,49km</t>
+  </si>
+  <si>
+    <t>6532,41km</t>
+  </si>
+  <si>
+    <t>8,91kg</t>
+  </si>
+  <si>
+    <t>6992,57km</t>
+  </si>
+  <si>
+    <t>6562,01km</t>
+  </si>
+  <si>
+    <t>6544,58km</t>
+  </si>
+  <si>
+    <t>6,38kg</t>
+  </si>
+  <si>
+    <t>6544,5km</t>
+  </si>
+  <si>
+    <t>6533,53km</t>
+  </si>
+  <si>
+    <t>9,07kg</t>
+  </si>
+  <si>
+    <t>7042,40km</t>
+  </si>
+  <si>
+    <t>6552,59km</t>
+  </si>
+  <si>
+    <t>6549,58km</t>
+  </si>
+  <si>
+    <t>8,88kg</t>
+  </si>
+  <si>
+    <t>7042,53km</t>
+  </si>
+  <si>
+    <t>6580,99km</t>
+  </si>
+  <si>
+    <t>6543,61km</t>
+  </si>
+  <si>
+    <t>7,55kg</t>
+  </si>
+  <si>
+    <t>7092,29km</t>
+  </si>
+  <si>
+    <t>6569,98km</t>
+  </si>
+  <si>
+    <t>6539,96km</t>
+  </si>
+  <si>
+    <t>8,90kg</t>
+  </si>
+  <si>
+    <t>7141,72km</t>
+  </si>
+  <si>
+    <t>7191,38km</t>
+  </si>
+  <si>
+    <t>6584,27km</t>
+  </si>
+  <si>
+    <t>6549,,07km</t>
+  </si>
+  <si>
+    <t>8,82kg</t>
+  </si>
+  <si>
+    <t>7241,04km</t>
+  </si>
+  <si>
+    <t>6582,64km</t>
+  </si>
+  <si>
+    <t>6549,29km</t>
+  </si>
+  <si>
+    <t>8,79kg</t>
   </si>
 </sst>
 </file>
@@ -2396,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9087C4-899D-41B6-916F-C0964ECE2974}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2478,12 +3306,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="J4" s="1">
+        <v>11.79</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2498,12 +3338,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="J5" s="1">
+        <v>17.739999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2518,12 +3370,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="J6" s="1">
+        <v>24.15</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2538,12 +3402,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="J7" s="1">
+        <v>30.24</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2558,12 +3434,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="J8" s="1">
+        <v>35.96</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2578,12 +3466,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="J9" s="1">
+        <v>41.17</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2598,12 +3498,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="J10" s="1">
+        <v>46.69</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2618,12 +3530,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="J11" s="1">
+        <v>52.28</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2638,12 +3562,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="J12" s="1">
+        <v>57.43</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2658,12 +3594,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="J13" s="1">
+        <v>62.63</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2678,12 +3626,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="J14" s="1">
+        <v>68.150000000000006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2694,8 +3654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DF6FFF-C6EA-4339-A45D-B25C4ED0A3BF}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2776,12 +3736,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="J4" s="1">
+        <v>99.77</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2797,19 +3769,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="J5" s="1">
         <v>181.45</v>
@@ -2829,19 +3801,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="J6" s="1">
         <v>232.06</v>
@@ -2861,19 +3833,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J7" s="1">
         <v>317.77</v>
@@ -2893,19 +3865,19 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="J8" s="1">
         <v>378</v>
@@ -2925,16 +3897,16 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>159</v>
@@ -2957,19 +3929,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="J10" s="1">
         <v>512.53</v>
@@ -2989,19 +3961,19 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J11" s="1">
         <v>559.39</v>
@@ -3021,19 +3993,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="J12" s="1">
         <v>630.39</v>
@@ -3053,19 +4025,19 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="J13" s="1">
         <v>672.67</v>
@@ -3085,16 +4057,16 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>189</v>
@@ -3112,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6FE69-048D-4F4F-AAAA-DAD9A47C6D93}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3194,12 +4166,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="J4" s="1">
+        <v>117.68</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3215,19 +4199,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="J5" s="1">
         <v>194.67</v>
@@ -3247,19 +4231,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="J6" s="1">
         <v>252.38</v>
@@ -3279,19 +4263,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="J7" s="1">
         <v>347.51</v>
@@ -3311,19 +4295,19 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="J8" s="1">
         <v>400.88</v>
@@ -3343,19 +4327,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="J9" s="1">
         <v>489.16</v>
@@ -3375,19 +4359,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J10" s="1">
         <v>540.34</v>
@@ -3407,19 +4391,19 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="J11" s="1">
         <v>604.94000000000005</v>
@@ -3439,19 +4423,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="J12" s="1">
         <v>662.19</v>
@@ -3471,19 +4455,19 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="J13" s="1">
         <v>718.37</v>
@@ -3503,19 +4487,19 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J14" s="1">
         <v>792.78</v>
@@ -3544,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3613,19 +4597,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J4" s="1">
         <v>143.36000000000001</v>
@@ -3645,19 +4629,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="J5" s="1">
         <v>206.69</v>
@@ -3677,19 +4661,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="J6" s="1">
         <v>280.74</v>
@@ -3709,19 +4693,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J7" s="1">
         <v>369.33</v>
@@ -3741,16 +4725,16 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>159</v>
@@ -3773,19 +4757,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="J9" s="1">
         <v>515.79</v>
@@ -3805,19 +4789,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="J10" s="1">
         <v>568.63</v>
@@ -3837,19 +4821,19 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J11" s="1">
         <v>643.41999999999996</v>
@@ -3869,19 +4853,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="J12" s="1">
         <v>693.72</v>
@@ -3901,19 +4885,19 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J13" s="1">
         <v>783.27</v>
@@ -3933,19 +4917,19 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="J14" s="1">
         <v>833.55</v>
@@ -3974,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4043,19 +5027,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="J4" s="1">
         <v>157.27000000000001</v>
@@ -4075,19 +5059,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="J5" s="1">
         <v>218.47</v>
@@ -4107,19 +5091,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="J6" s="1">
         <v>315.48</v>
@@ -4139,19 +5123,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="J7" s="1">
         <v>386.3</v>
@@ -4171,19 +5155,19 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="J8" s="1">
         <v>470.28</v>
@@ -4203,19 +5187,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="J9" s="1">
         <v>537.28</v>
@@ -4235,19 +5219,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J10" s="1">
         <v>601.28</v>
@@ -4267,19 +5251,19 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J11" s="1">
         <v>672.35</v>
@@ -4299,19 +5283,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="J12" s="1">
         <v>741.03</v>
@@ -4331,19 +5315,19 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="J13" s="1">
         <v>820.39</v>
@@ -4363,19 +5347,19 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="J14" s="1">
         <v>880.56</v>
@@ -4404,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4473,19 +5457,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="J4" s="1">
         <v>166.24</v>
@@ -4505,19 +5489,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="J5" s="1">
         <v>229.77</v>
@@ -4537,19 +5521,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="J6" s="1">
         <v>336.38</v>
@@ -4569,19 +5553,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="J7" s="1">
         <v>401.41</v>
@@ -4601,19 +5585,19 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="J8" s="1">
         <v>494.96</v>
@@ -4633,19 +5617,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="J9" s="1">
         <v>556.12</v>
@@ -4665,19 +5649,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="J10" s="1">
         <v>636.17999999999995</v>
@@ -4697,19 +5681,19 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>223</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J11" s="1">
         <v>698.56</v>
@@ -4729,19 +5713,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="J12" s="1">
         <v>799.02</v>
@@ -4761,19 +5745,19 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="J13" s="1">
         <v>858.4</v>
@@ -4793,19 +5777,19 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J14" s="1">
         <v>956.65</v>
@@ -4820,7 +5804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754A9B72-33D2-4627-814E-D3C82087A435}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -4834,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4903,19 +5887,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="J4" s="1">
         <v>174.04</v>
@@ -4935,19 +5919,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="J5" s="1">
         <v>242.44</v>
@@ -4967,19 +5951,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="J6" s="1">
         <v>352.17</v>
@@ -4999,19 +5983,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="J7" s="1">
         <v>417.64</v>
@@ -5031,19 +6015,19 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="J8" s="1">
         <v>514.96</v>
@@ -5063,19 +6047,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J9" s="1">
         <v>576.54</v>
@@ -5095,19 +6079,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="J10" s="1">
         <v>663.76</v>
@@ -5127,19 +6111,19 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="J11" s="1">
         <v>726.96</v>
@@ -5159,19 +6143,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>235</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J12" s="1">
         <v>831.7</v>
@@ -5191,19 +6175,19 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J13" s="1">
         <v>897.62</v>
@@ -5223,16 +6207,16 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>43</v>
@@ -5250,8 +6234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072B051A-2177-4D14-9A52-A7BBABA5C2F1}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J1:J14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6962,8 +7946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A217E3B0-B4B9-4C64-BD46-F83285A0A713}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6976,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -7044,12 +8028,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="J4" s="1">
+        <v>22.12</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -7064,12 +8060,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="J5" s="1">
+        <v>32.630000000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -7084,12 +8092,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="J6" s="1">
+        <v>42.11</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -7104,12 +8124,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="J7" s="1">
+        <v>51.97</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -7124,12 +8156,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J8" s="1">
+        <v>61.08</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -7144,12 +8188,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="J9" s="1">
+        <v>70.739999999999995</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -7164,12 +8220,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="J10" s="1">
+        <v>80.52</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -7184,12 +8252,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J11" s="1">
+        <v>91.03</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -7224,12 +8304,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="J13" s="1">
+        <v>114.14</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -7244,12 +8336,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="J14" s="1">
+        <v>126.29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7691,7 +8795,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7773,19 +8877,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="J4" s="1">
         <v>215.77</v>
@@ -7805,19 +8909,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="J5" s="1">
         <v>325.26</v>
@@ -7837,19 +8941,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="J6" s="1">
         <v>407.18</v>
@@ -7869,19 +8973,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J7" s="1">
         <v>511.7</v>
@@ -7904,16 +9008,16 @@
         <v>252</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J8" s="1">
         <v>602.1</v>
@@ -7933,19 +9037,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="J9" s="1">
         <v>729.19</v>
@@ -8120,8 +9224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04D6444-EBDE-417E-A464-58AE83DC1AAC}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8134,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8202,12 +9306,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="J4" s="1">
+        <v>32.64</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -8222,12 +9338,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46.73</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -8242,12 +9370,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J6" s="1">
+        <v>60.62</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -8262,12 +9402,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="J7" s="1">
+        <v>75.260000000000005</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -8282,12 +9434,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="J8" s="1">
+        <v>91.92</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -8302,12 +9466,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="J9" s="1">
+        <v>110.56</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -8322,12 +9498,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J10" s="1">
+        <v>131.57</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -8342,12 +9530,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="J11" s="1">
+        <v>150.44</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -8362,12 +9562,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="J12" s="1">
+        <v>168.24</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -8382,12 +9594,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J13" s="1">
+        <v>185.69</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -8402,12 +9626,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="J14" s="1">
+        <v>204.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8418,8 +9654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C86693-25E7-4ABB-BF7A-363227C06BCA}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8432,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8500,12 +9736,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="J4" s="1">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -8520,12 +9768,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="J5" s="1">
+        <v>60.39</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -8540,12 +9800,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="J6" s="1">
+        <v>80.650000000000006</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -8560,12 +9832,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="J7" s="1">
+        <v>106.64</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -8580,12 +9864,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J8" s="1">
+        <v>138.76</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -8600,12 +9896,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J9" s="1">
+        <v>165.85</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -8620,12 +9928,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="J10" s="1">
+        <v>190.19</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -8640,12 +9960,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="J11" s="1">
+        <v>215.13</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -8660,12 +9992,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="J12" s="1">
+        <v>239.72</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -8680,12 +10024,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="J13" s="1">
+        <v>272.2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -8700,12 +10056,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="1">
+        <v>306.17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8716,8 +10084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3043CE-BA7B-4EB4-B44C-5F5FE0759726}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8730,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -8798,12 +10166,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="J4" s="1">
+        <v>51.02</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -8818,12 +10198,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="J5" s="1">
+        <v>74.430000000000007</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -8838,12 +10230,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="J6" s="1">
+        <v>108.22</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -8858,12 +10262,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="J7" s="1">
+        <v>151.99</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -8878,12 +10294,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J8" s="1">
+        <v>183.24</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -8898,12 +10326,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="J9" s="1">
+        <v>213.42</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -8918,12 +10358,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="J10" s="1">
+        <v>245.24</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -8938,12 +10390,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="J11" s="1">
+        <v>289.39</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -8958,12 +10422,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="J12" s="1">
+        <v>333.53</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -8978,12 +10454,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="J13" s="1">
+        <v>369.01</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -8998,12 +10486,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J14" s="1">
+        <v>413.08</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9014,8 +10514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD16FC9-BC86-482B-8AF5-FA7D9557AA07}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9028,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9096,12 +10596,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J4" s="1">
+        <v>59.22</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -9116,12 +10628,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J5" s="1">
+        <v>92.11</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -9136,12 +10660,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J6" s="1">
+        <v>147.52000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -9156,12 +10692,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="J7" s="1">
+        <v>185.16</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -9176,12 +10724,24 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J8" s="1">
+        <v>220.12</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -9196,12 +10756,24 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J9" s="1">
+        <v>261.75</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -9216,12 +10788,24 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J10" s="1">
+        <v>318.73</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -9236,12 +10820,24 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J11" s="1">
+        <v>362.63</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -9256,12 +10852,24 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="J12" s="1">
+        <v>407.8</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -9276,12 +10884,24 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="J13" s="1">
+        <v>462.31</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -9296,12 +10916,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14" s="1">
+        <v>496.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9312,8 +10944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4DFF7A-247D-4B28-8A42-BAE7DB13E7B9}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9326,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9394,12 +11026,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="J4" s="1">
+        <v>68.08</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -9414,12 +11058,24 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="J5" s="1">
+        <v>117.31</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -9434,12 +11090,24 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="J6" s="1">
+        <v>173.86</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -9454,12 +11122,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="J7" s="1">
+        <v>212.79</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -9475,19 +11155,19 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="J8" s="1">
         <v>258.08999999999997</v>
@@ -9507,19 +11187,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="J9" s="1">
         <v>325.02999999999997</v>
@@ -9539,19 +11219,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="J10" s="1">
         <v>371.6</v>
@@ -9571,16 +11251,16 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>63</v>
@@ -9603,19 +11283,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="J12" s="1">
         <v>482.05</v>
@@ -9635,19 +11315,19 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="J13" s="1">
         <v>518.24</v>
@@ -9667,19 +11347,19 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="J14" s="1">
         <v>561.98</v>
@@ -9694,8 +11374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B18802-76A7-4298-992F-4D473538BE18}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9708,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9777,19 +11457,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="J4" s="1">
         <v>76.3</v>
@@ -9809,19 +11489,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="J5" s="1">
         <v>149.22</v>
@@ -9841,19 +11521,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="J6" s="1">
         <v>195.17</v>
@@ -9872,12 +11552,24 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="J7" s="1">
+        <v>239.29</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -9893,19 +11585,19 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="J8" s="1">
         <v>312.77999999999997</v>
@@ -9925,19 +11617,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="J9" s="1">
         <v>368.09</v>
@@ -9957,19 +11649,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="J10" s="1">
         <v>423.79</v>
@@ -9989,19 +11681,19 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="J11" s="1">
         <v>486.94</v>
@@ -10021,19 +11713,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="J12" s="1">
         <v>526.99</v>
@@ -10053,19 +11745,19 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="J13" s="1">
         <v>578.57000000000005</v>
@@ -10085,19 +11777,19 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="J14" s="1">
         <v>635.32000000000005</v>
@@ -10112,8 +11804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E93B5F-2229-40D0-8441-2F4E0BF9F920}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10126,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -10194,12 +11886,24 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="J4" s="1">
+        <v>86.63</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -10215,19 +11919,19 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J5" s="1">
         <v>167.28</v>
@@ -10247,19 +11951,19 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="J6" s="1">
         <v>213.74</v>
@@ -10279,19 +11983,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="J7" s="1">
         <v>275.68</v>
@@ -10311,19 +12015,19 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="J8" s="1">
         <v>352.78</v>
@@ -10343,19 +12047,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="J9" s="1">
         <v>400.39</v>
@@ -10375,19 +12079,19 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="J10" s="1">
         <v>479.66</v>
@@ -10407,19 +12111,19 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="J11" s="1">
         <v>524</v>
@@ -10439,19 +12143,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="J12" s="1">
         <v>574.75</v>
@@ -10471,19 +12175,19 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="J13" s="1">
         <v>637.19000000000005</v>
@@ -10503,19 +12207,19 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="J14" s="1">
         <v>678.02</v>
